--- a/apps/features/backlog/iPhone/settings/protocol_settings.xlsx
+++ b/apps/features/backlog/iPhone/settings/protocol_settings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\android\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\iPhone\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583058C-7082-4BDD-99A9-0E703155C645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45318CC7-0C5F-4D8A-930B-6B641503D7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -259,11 +259,30 @@
     <t>check if can change the protocol while kill switch is on</t>
   </si>
   <si>
+    <t>TC_SYM_STP_023</t>
+  </si>
+  <si>
+    <t>check if the protocol is changing while connected to any server</t>
+  </si>
+  <si>
     <t>1. go to appstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. connect to any server
+6. navigate to the protocol settings
+7. try to change the protocol
+8. check if the protocol is changing while connected to any server</t>
+  </si>
+  <si>
+    <t>a message "disconnect the server" should be shown and protocol should not be changed</t>
+  </si>
+  <si>
+    <t>1. go to appstore and install symlexvpn in the device
+2. open the installed symlexvpn application.
+3. input password to the password field
+4. tap on login button
+5. navigate to the protocol settings
 6. check that the default protocol is selected.</t>
   </si>
   <si>
@@ -271,7 +290,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. change the protocol to a different one (from all protocol to protocol 1)
 7. reconnect the vpn</t>
   </si>
@@ -280,7 +299,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. change the protocol to a different one (from protocol 1 to protocol 2)
 7. reconnect the vpn</t>
   </si>
@@ -289,7 +308,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the server list for protocol all</t>
   </si>
   <si>
@@ -297,7 +316,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the server list for "protocol 1"</t>
   </si>
   <si>
@@ -305,7 +324,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the server list for "protocol 2"</t>
   </si>
   <si>
@@ -313,7 +332,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check if the dropdown is working properly or not</t>
   </si>
   <si>
@@ -321,7 +340,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the current protocol status after logout
     and again login</t>
   </si>
@@ -330,7 +349,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. check the protocol status when changing the 
      protocol while connecting to server</t>
   </si>
@@ -339,7 +358,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the presence of all protocol options (all protocols, protocol 1, protocol 2) in the dropdown</t>
   </si>
   <si>
@@ -347,7 +366,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check for changing protocol selection</t>
   </si>
   <si>
@@ -355,7 +374,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check when protocol change without connection</t>
   </si>
   <si>
@@ -363,7 +382,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check when Change the protocol and initiate a connection</t>
   </si>
   <si>
@@ -371,7 +390,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. change the protocol and check for feedback or confirmation messages</t>
   </si>
   <si>
@@ -379,7 +398,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to test connection speed with each protocol (All Protocols, Protocol 1, Protocol 2)</t>
   </si>
   <si>
@@ -387,7 +406,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the impact of different protocols on data usage</t>
   </si>
   <si>
@@ -395,7 +414,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the security features of each protocol </t>
   </si>
   <si>
@@ -403,7 +422,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check for changing the protocol while net is off</t>
   </si>
   <si>
@@ -411,7 +430,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the apps behaviour while connecting to 
 another server and changing the protocol</t>
   </si>
@@ -420,7 +439,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the server connection time while changing the protocol </t>
   </si>
   <si>
@@ -428,7 +447,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check if can change the protocol while net is off</t>
   </si>
   <si>
@@ -436,7 +455,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. select any protocol
 7. connect to server
 8. try to check if the back button and menu button is working properly by clicking it while connected to the server</t>
@@ -446,7 +465,7 @@
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check if can change the protocol while kill switch is on</t>
   </si>
 </sst>
@@ -1394,7 +1413,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G26" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G27" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
@@ -1612,8 +1631,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1739,7 +1758,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -1781,7 +1800,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -1821,7 +1840,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -1861,7 +1880,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1901,7 +1920,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
@@ -1941,7 +1960,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -1981,7 +2000,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>35</v>
@@ -2021,7 +2040,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2061,7 +2080,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>39</v>
@@ -2101,7 +2120,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>41</v>
@@ -2141,7 +2160,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>43</v>
@@ -2181,7 +2200,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>45</v>
@@ -2221,7 +2240,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>47</v>
@@ -2261,7 +2280,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>49</v>
@@ -2301,7 +2320,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>51</v>
@@ -2341,7 +2360,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>53</v>
@@ -2381,7 +2400,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>55</v>
@@ -2421,7 +2440,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>57</v>
@@ -2461,7 +2480,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>57</v>
@@ -2501,7 +2520,7 @@
         <v>66</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>68</v>
@@ -2541,7 +2560,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>39</v>
@@ -2581,7 +2600,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>39</v>
@@ -2621,7 +2640,7 @@
         <v>75</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>39</v>
@@ -2650,14 +2669,26 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+    <row r="27" spans="1:26" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
